--- a/Experiments/240909_RC/plasmids_sp_updated.xlsx
+++ b/Experiments/240909_RC/plasmids_sp_updated.xlsx
@@ -495,7 +495,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>56.15,</t>
+          <t>54.2,</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>24.95,</t>
+          <t>24.925,</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>59.9,</t>
+          <t>59.85,</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>49.375,</t>
+          <t>49.05,</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>49.825,</t>
+          <t>49.725,</t>
         </is>
       </c>
     </row>
@@ -743,7 +743,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>49.7,</t>
+          <t>49.575,</t>
         </is>
       </c>
     </row>
@@ -836,7 +836,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>49.8,</t>
+          <t>49.675,</t>
         </is>
       </c>
     </row>
@@ -867,7 +867,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>49.5,</t>
+          <t>49.25,</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>49.6,</t>
+          <t>49.4,</t>
         </is>
       </c>
     </row>
